--- a/old_database/crypto/fastqFiles/fastq_3569.xlsx
+++ b/old_database/crypto/fastqFiles/fastq_3569.xlsx
@@ -40,7 +40,7 @@
     <t>04.03.19</t>
   </si>
   <si>
-    <t>Retrofitted</t>
+    <t>Retrofitted_3569</t>
   </si>
   <si>
     <t>sequence/run_3569_samples/Brent_1_GTAC_1_SIC_Index2_07_TGAGGTTA_GAGTTGGT_S2_R1_001.fastq.gz</t>
